--- a/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
+++ b/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="410">
   <si>
     <t>Michiel</t>
   </si>
@@ -45,12 +45,6 @@
     <t>ip_address</t>
   </si>
   <si>
-    <t>Shena</t>
-  </si>
-  <si>
-    <t>Chiommienti</t>
-  </si>
-  <si>
     <t>schiommienti0@china.com.cn</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>98.2.23.154</t>
   </si>
   <si>
-    <t>Inga</t>
-  </si>
-  <si>
-    <t>Lasham</t>
-  </si>
-  <si>
     <t>ilasham1@cocolog-nifty.com</t>
   </si>
   <si>
@@ -1258,6 +1246,15 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>Huh</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Dockx</t>
   </si>
 </sst>
 </file>
@@ -1604,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.3">
@@ -1617,7 +1614,7 @@
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F11">
         <v>22</v>
@@ -1636,7 +1633,7 @@
   <dimension ref="A9:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,31 +1660,31 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G9" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
       </c>
       <c r="F10" s="1">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43004</v>
+        <v>43005</v>
       </c>
       <c r="G10" s="2">
         <v>0.19916165334139824</v>
@@ -1695,23 +1692,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>408</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">F10+1</f>
-        <v>43005</v>
+        <v>43006</v>
       </c>
       <c r="G11" s="2">
         <v>0.4163163720275469</v>
@@ -1719,23 +1716,23 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F75" ca="1" si="0">F11+1</f>
-        <v>43006</v>
+        <v>43007</v>
       </c>
       <c r="G12" s="2">
         <v>0.7163664606179394</v>
@@ -1743,23 +1740,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="G13" s="2">
         <v>0.48846370962378238</v>
@@ -1767,23 +1764,23 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="G14" s="2">
         <v>0.18293459937479883</v>
@@ -1791,23 +1788,23 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43009</v>
+        <v>43010</v>
       </c>
       <c r="G15" s="2">
         <v>0.55524867307877357</v>
@@ -1815,23 +1812,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43010</v>
+        <v>43011</v>
       </c>
       <c r="G16" s="2">
         <v>0.5119929521822979</v>
@@ -1839,23 +1836,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43011</v>
+        <v>43012</v>
       </c>
       <c r="G17" s="2">
         <v>0.61551073911253107</v>
@@ -1863,23 +1860,23 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43012</v>
+        <v>43013</v>
       </c>
       <c r="G18" s="2">
         <v>0.69497675934094494</v>
@@ -1887,23 +1884,23 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="G19" s="2">
         <v>0.45834359873746633</v>
@@ -1911,23 +1908,23 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43014</v>
+        <v>43015</v>
       </c>
       <c r="G20" s="2">
         <v>0.67759913711598718</v>
@@ -1935,23 +1932,23 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="G21" s="2">
         <v>0.52463956090917407</v>
@@ -1959,23 +1956,23 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43016</v>
+        <v>43017</v>
       </c>
       <c r="G22" s="2">
         <v>0.31030597290787143</v>
@@ -1983,23 +1980,23 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="G23" s="2">
         <v>0.42017830121998434</v>
@@ -2007,23 +2004,23 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43018</v>
+        <v>43019</v>
       </c>
       <c r="G24" s="2">
         <v>0.46077178918196593</v>
@@ -2031,23 +2028,23 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43019</v>
+        <v>43020</v>
       </c>
       <c r="G25" s="2">
         <v>0.32789172291650048</v>
@@ -2055,23 +2052,23 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="G26" s="2">
         <v>7.2552559483518575E-4</v>
@@ -2079,23 +2076,23 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43021</v>
+        <v>43022</v>
       </c>
       <c r="G27" s="2">
         <v>0.76249716396365153</v>
@@ -2103,23 +2100,23 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43022</v>
+        <v>43023</v>
       </c>
       <c r="G28" s="2">
         <v>0.3750071983009351</v>
@@ -2127,23 +2124,23 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43023</v>
+        <v>43024</v>
       </c>
       <c r="G29" s="2">
         <v>0.37846461641921336</v>
@@ -2151,23 +2148,23 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="G30" s="2">
         <v>0.96567931062216428</v>
@@ -2175,23 +2172,23 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43025</v>
+        <v>43026</v>
       </c>
       <c r="G31" s="2">
         <v>0.43091744996703851</v>
@@ -2199,23 +2196,23 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43026</v>
+        <v>43027</v>
       </c>
       <c r="G32" s="2">
         <v>0.64920230325149308</v>
@@ -2223,23 +2220,23 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43027</v>
+        <v>43028</v>
       </c>
       <c r="G33" s="2">
         <v>0.85593790489185373</v>
@@ -2247,23 +2244,23 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43028</v>
+        <v>43029</v>
       </c>
       <c r="G34" s="2">
         <v>0.22852768403452484</v>
@@ -2271,23 +2268,23 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43029</v>
+        <v>43030</v>
       </c>
       <c r="G35" s="2">
         <v>0.16238606120812904</v>
@@ -2295,23 +2292,23 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43030</v>
+        <v>43031</v>
       </c>
       <c r="G36" s="2">
         <v>0.53526087740902284</v>
@@ -2319,23 +2316,23 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43031</v>
+        <v>43032</v>
       </c>
       <c r="G37" s="2">
         <v>0.82194442761920605</v>
@@ -2343,23 +2340,23 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43032</v>
+        <v>43033</v>
       </c>
       <c r="G38" s="2">
         <v>0.88212965769788032</v>
@@ -2367,23 +2364,23 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43033</v>
+        <v>43034</v>
       </c>
       <c r="G39" s="2">
         <v>7.2250303799197169E-2</v>
@@ -2391,23 +2388,23 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43034</v>
+        <v>43035</v>
       </c>
       <c r="G40" s="2">
         <v>7.1195702056510823E-2</v>
@@ -2415,23 +2412,23 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43035</v>
+        <v>43036</v>
       </c>
       <c r="G41" s="2">
         <v>0.85785120950915561</v>
@@ -2439,23 +2436,23 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43036</v>
+        <v>43037</v>
       </c>
       <c r="G42" s="2">
         <v>0.30577153058324347</v>
@@ -2463,23 +2460,23 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="G43" s="2">
         <v>0.31483526491145875</v>
@@ -2487,23 +2484,23 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="G44" s="2">
         <v>0.94599185402877539</v>
@@ -2511,23 +2508,23 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="G45" s="2">
         <v>0.34205280977493635</v>
@@ -2535,23 +2532,23 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="G46" s="2">
         <v>0.17705269996376227</v>
@@ -2559,23 +2556,23 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="G47" s="2">
         <v>0.8731505416410984</v>
@@ -2583,23 +2580,23 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="G48" s="2">
         <v>3.4709672365056843E-2</v>
@@ -2607,23 +2604,23 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43043</v>
+        <v>43044</v>
       </c>
       <c r="G49" s="2">
         <v>0.56840793858086924</v>
@@ -2631,23 +2628,23 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="G50" s="2">
         <v>0.66056676193295061</v>
@@ -2655,23 +2652,23 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="G51" s="2">
         <v>0.9481936014422625</v>
@@ -2679,23 +2676,23 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="G52" s="2">
         <v>0.48134481626866865</v>
@@ -2703,23 +2700,23 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="G53" s="2">
         <v>0.98436272154419169</v>
@@ -2727,23 +2724,23 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="G54" s="2">
         <v>0.24448855346001963</v>
@@ -2751,23 +2748,23 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43050</v>
       </c>
       <c r="G55" s="2">
         <v>0.38813971210061615</v>
@@ -2775,23 +2772,23 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B56" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D56" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43050</v>
+        <v>43051</v>
       </c>
       <c r="G56" s="2">
         <v>0.18553229965365681</v>
@@ -2799,23 +2796,23 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43051</v>
+        <v>43052</v>
       </c>
       <c r="G57" s="2">
         <v>0.46398219265503382</v>
@@ -2823,23 +2820,23 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D58" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43052</v>
+        <v>43053</v>
       </c>
       <c r="G58" s="2">
         <v>0.95347248750662683</v>
@@ -2847,23 +2844,23 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="G59" s="2">
         <v>0.95523140993288003</v>
@@ -2871,23 +2868,23 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="G60" s="2">
         <v>0.60285593026323092</v>
@@ -2895,23 +2892,23 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="G61" s="2">
         <v>0.80654472217638473</v>
@@ -2919,23 +2916,23 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B62" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D62" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E62" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="G62" s="2">
         <v>0.23547687087211988</v>
@@ -2943,23 +2940,23 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43057</v>
+        <v>43058</v>
       </c>
       <c r="G63" s="2">
         <v>0.30970611241142176</v>
@@ -2967,23 +2964,23 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B64" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43058</v>
+        <v>43059</v>
       </c>
       <c r="G64" s="2">
         <v>0.28513850123847373</v>
@@ -2991,23 +2988,23 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D65" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43059</v>
+        <v>43060</v>
       </c>
       <c r="G65" s="2">
         <v>8.4540537865267495E-2</v>
@@ -3015,23 +3012,23 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B66" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C66" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="G66" s="2">
         <v>0.7185829330697816</v>
@@ -3039,23 +3036,23 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C67" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D67" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="G67" s="2">
         <v>0.34062480906485459</v>
@@ -3063,23 +3060,23 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43062</v>
+        <v>43063</v>
       </c>
       <c r="G68" s="2">
         <v>0.17354261155111872</v>
@@ -3087,23 +3084,23 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B69" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="G69" s="2">
         <v>0.46191420869872024</v>
@@ -3111,23 +3108,23 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C70" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="G70" s="2">
         <v>0.98240017574459171</v>
@@ -3135,23 +3132,23 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C71" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="G71" s="2">
         <v>0.89474780241649521</v>
@@ -3159,23 +3156,23 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43066</v>
+        <v>43067</v>
       </c>
       <c r="G72" s="2">
         <v>0.21072742306706926</v>
@@ -3183,23 +3180,23 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B73" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43067</v>
+        <v>43068</v>
       </c>
       <c r="G73" s="2">
         <v>0.25434217867655362</v>
@@ -3207,23 +3204,23 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B74" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="G74" s="2">
         <v>0.35857915458283451</v>
@@ -3231,23 +3228,23 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="G75" s="2">
         <v>0.70109746172958098</v>
@@ -3255,23 +3252,23 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C76" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ref="F76:F109" ca="1" si="1">F75+1</f>
-        <v>43070</v>
+        <v>43071</v>
       </c>
       <c r="G76" s="2">
         <v>0.8471876752499663</v>
@@ -3279,23 +3276,23 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43071</v>
+        <v>43072</v>
       </c>
       <c r="G77" s="2">
         <v>0.9301183879405106</v>
@@ -3303,23 +3300,23 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="G78" s="2">
         <v>0.98862454976725322</v>
@@ -3327,23 +3324,23 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B79" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D79" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="G79" s="2">
         <v>0.41342606802780646</v>
@@ -3351,23 +3348,23 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C80" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43074</v>
+        <v>43075</v>
       </c>
       <c r="G80" s="2">
         <v>0.6252219871752509</v>
@@ -3375,23 +3372,23 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B81" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="G81" s="2">
         <v>0.48873919776540264</v>
@@ -3399,23 +3396,23 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="G82" s="2">
         <v>9.3874144631708956E-2</v>
@@ -3423,23 +3420,23 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="G83" s="2">
         <v>0.60362919914726854</v>
@@ -3447,23 +3444,23 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B84" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C84" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43078</v>
+        <v>43079</v>
       </c>
       <c r="G84" s="2">
         <v>0.80739465754808015</v>
@@ -3471,23 +3468,23 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C85" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="G85" s="2">
         <v>0.24985761600844336</v>
@@ -3495,23 +3492,23 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43080</v>
+        <v>43081</v>
       </c>
       <c r="G86" s="2">
         <v>0.73826040385492131</v>
@@ -3519,23 +3516,23 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B87" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="G87" s="2">
         <v>0.70051873060312764</v>
@@ -3543,23 +3540,23 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C88" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="G88" s="2">
         <v>6.1603923952633366E-3</v>
@@ -3567,23 +3564,23 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C89" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="G89" s="2">
         <v>0.31443172550467946</v>
@@ -3591,23 +3588,23 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C90" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43084</v>
+        <v>43085</v>
       </c>
       <c r="G90" s="2">
         <v>0.57097125794781001</v>
@@ -3615,23 +3612,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B91" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C91" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43085</v>
+        <v>43086</v>
       </c>
       <c r="G91" s="2">
         <v>0.75931887043491542</v>
@@ -3639,23 +3636,23 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B92" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C92" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D92" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43086</v>
+        <v>43087</v>
       </c>
       <c r="G92" s="2">
         <v>0.58467767595947751</v>
@@ -3663,23 +3660,23 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43087</v>
+        <v>43088</v>
       </c>
       <c r="G93" s="2">
         <v>0.11403947277461057</v>
@@ -3687,23 +3684,23 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B94" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C94" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="G94" s="2">
         <v>0.55355502971467729</v>
@@ -3711,23 +3708,23 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D95" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="G95" s="2">
         <v>0.1638635460145611</v>
@@ -3735,23 +3732,23 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C96" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E96" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="G96" s="2">
         <v>0.51606244317239758</v>
@@ -3759,23 +3756,23 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C97" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="G97" s="2">
         <v>0.48065729203617324</v>
@@ -3783,23 +3780,23 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E98" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43092</v>
+        <v>43093</v>
       </c>
       <c r="G98" s="2">
         <v>0.83807925741546863</v>
@@ -3807,23 +3804,23 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B99" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C99" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E99" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43093</v>
+        <v>43094</v>
       </c>
       <c r="G99" s="2">
         <v>0.50517143272725362</v>
@@ -3831,23 +3828,23 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B100" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C100" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D100" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43094</v>
+        <v>43095</v>
       </c>
       <c r="G100" s="2">
         <v>0.14317582252941508</v>
@@ -3855,23 +3852,23 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C101" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E101" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43095</v>
+        <v>43096</v>
       </c>
       <c r="G101" s="2">
         <v>0.21918409780116344</v>
@@ -3879,23 +3876,23 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B102" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C102" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E102" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43096</v>
+        <v>43097</v>
       </c>
       <c r="G102" s="2">
         <v>0.31284191627988467</v>
@@ -3903,23 +3900,23 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C103" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="G103" s="2">
         <v>0.99730369235531569</v>
@@ -3927,23 +3924,23 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B104" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D104" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="G104" s="2">
         <v>0.84104753696091616</v>
@@ -3951,23 +3948,23 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B105" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C105" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43099</v>
+        <v>43100</v>
       </c>
       <c r="G105" s="2">
         <v>0.85213043814510103</v>
@@ -3975,23 +3972,23 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B106" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43100</v>
+        <v>43101</v>
       </c>
       <c r="G106" s="2">
         <v>0.17015790202817627</v>
@@ -3999,23 +3996,23 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B107" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C107" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G107" s="2">
         <v>0.31368438960705314</v>
@@ -4023,23 +4020,23 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B108" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C108" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E108" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43102</v>
+        <v>43103</v>
       </c>
       <c r="G108" s="2">
         <v>0.27565930417431461</v>
@@ -4047,23 +4044,23 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B109" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="G109" s="2">
         <v>0.93139807358768134</v>

--- a/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
+++ b/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1239,9 +1239,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>Jeroen</t>
-  </si>
-  <si>
     <t>doubles</t>
   </si>
   <si>
@@ -1254,7 +1251,10 @@
     <t>What</t>
   </si>
   <si>
-    <t>Dockx</t>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Bob</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="11" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F11">
         <v>22</v>
@@ -1632,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1660,10 +1660,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="F10" s="1">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43005</v>
+        <v>43006</v>
       </c>
       <c r="G10" s="2">
         <v>0.19916165334139824</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="F11" s="1">
         <f ca="1">F10+1</f>
-        <v>43006</v>
+        <v>43007</v>
       </c>
       <c r="G11" s="2">
         <v>0.4163163720275469</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F75" ca="1" si="0">F11+1</f>
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="G12" s="2">
         <v>0.7163664606179394</v>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="G13" s="2">
         <v>0.48846370962378238</v>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43009</v>
+        <v>43010</v>
       </c>
       <c r="G14" s="2">
         <v>0.18293459937479883</v>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43010</v>
+        <v>43011</v>
       </c>
       <c r="G15" s="2">
         <v>0.55524867307877357</v>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43011</v>
+        <v>43012</v>
       </c>
       <c r="G16" s="2">
         <v>0.5119929521822979</v>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43012</v>
+        <v>43013</v>
       </c>
       <c r="G17" s="2">
         <v>0.61551073911253107</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="G18" s="2">
         <v>0.69497675934094494</v>
@@ -1900,7 +1900,7 @@
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43014</v>
+        <v>43015</v>
       </c>
       <c r="G19" s="2">
         <v>0.45834359873746633</v>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="G20" s="2">
         <v>0.67759913711598718</v>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43016</v>
+        <v>43017</v>
       </c>
       <c r="G21" s="2">
         <v>0.52463956090917407</v>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="G22" s="2">
         <v>0.31030597290787143</v>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43018</v>
+        <v>43019</v>
       </c>
       <c r="G23" s="2">
         <v>0.42017830121998434</v>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43019</v>
+        <v>43020</v>
       </c>
       <c r="G24" s="2">
         <v>0.46077178918196593</v>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="G25" s="2">
         <v>0.32789172291650048</v>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43021</v>
+        <v>43022</v>
       </c>
       <c r="G26" s="2">
         <v>7.2552559483518575E-4</v>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43022</v>
+        <v>43023</v>
       </c>
       <c r="G27" s="2">
         <v>0.76249716396365153</v>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43023</v>
+        <v>43024</v>
       </c>
       <c r="G28" s="2">
         <v>0.3750071983009351</v>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="G29" s="2">
         <v>0.37846461641921336</v>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43025</v>
+        <v>43026</v>
       </c>
       <c r="G30" s="2">
         <v>0.96567931062216428</v>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43026</v>
+        <v>43027</v>
       </c>
       <c r="G31" s="2">
         <v>0.43091744996703851</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43027</v>
+        <v>43028</v>
       </c>
       <c r="G32" s="2">
         <v>0.64920230325149308</v>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43028</v>
+        <v>43029</v>
       </c>
       <c r="G33" s="2">
         <v>0.85593790489185373</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43029</v>
+        <v>43030</v>
       </c>
       <c r="G34" s="2">
         <v>0.22852768403452484</v>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43030</v>
+        <v>43031</v>
       </c>
       <c r="G35" s="2">
         <v>0.16238606120812904</v>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43031</v>
+        <v>43032</v>
       </c>
       <c r="G36" s="2">
         <v>0.53526087740902284</v>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43032</v>
+        <v>43033</v>
       </c>
       <c r="G37" s="2">
         <v>0.82194442761920605</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43033</v>
+        <v>43034</v>
       </c>
       <c r="G38" s="2">
         <v>0.88212965769788032</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43034</v>
+        <v>43035</v>
       </c>
       <c r="G39" s="2">
         <v>7.2250303799197169E-2</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43035</v>
+        <v>43036</v>
       </c>
       <c r="G40" s="2">
         <v>7.1195702056510823E-2</v>
@@ -2428,7 +2428,7 @@
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43036</v>
+        <v>43037</v>
       </c>
       <c r="G41" s="2">
         <v>0.85785120950915561</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="G42" s="2">
         <v>0.30577153058324347</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="G43" s="2">
         <v>0.31483526491145875</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="G44" s="2">
         <v>0.94599185402877539</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="G45" s="2">
         <v>0.34205280977493635</v>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="G46" s="2">
         <v>0.17705269996376227</v>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="G47" s="2">
         <v>0.8731505416410984</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43043</v>
+        <v>43044</v>
       </c>
       <c r="G48" s="2">
         <v>3.4709672365056843E-2</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="G49" s="2">
         <v>0.56840793858086924</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="G50" s="2">
         <v>0.66056676193295061</v>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="G51" s="2">
         <v>0.9481936014422625</v>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="G52" s="2">
         <v>0.48134481626866865</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="G53" s="2">
         <v>0.98436272154419169</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43050</v>
       </c>
       <c r="G54" s="2">
         <v>0.24448855346001963</v>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43050</v>
+        <v>43051</v>
       </c>
       <c r="G55" s="2">
         <v>0.38813971210061615</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43051</v>
+        <v>43052</v>
       </c>
       <c r="G56" s="2">
         <v>0.18553229965365681</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43052</v>
+        <v>43053</v>
       </c>
       <c r="G57" s="2">
         <v>0.46398219265503382</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="G58" s="2">
         <v>0.95347248750662683</v>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="G59" s="2">
         <v>0.95523140993288003</v>
@@ -2884,7 +2884,7 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="G60" s="2">
         <v>0.60285593026323092</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="G61" s="2">
         <v>0.80654472217638473</v>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43057</v>
+        <v>43058</v>
       </c>
       <c r="G62" s="2">
         <v>0.23547687087211988</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43058</v>
+        <v>43059</v>
       </c>
       <c r="G63" s="2">
         <v>0.30970611241142176</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43059</v>
+        <v>43060</v>
       </c>
       <c r="G64" s="2">
         <v>0.28513850123847373</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="G65" s="2">
         <v>8.4540537865267495E-2</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="G66" s="2">
         <v>0.7185829330697816</v>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43062</v>
+        <v>43063</v>
       </c>
       <c r="G67" s="2">
         <v>0.34062480906485459</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="G68" s="2">
         <v>0.17354261155111872</v>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="G69" s="2">
         <v>0.46191420869872024</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="G70" s="2">
         <v>0.98240017574459171</v>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43066</v>
+        <v>43067</v>
       </c>
       <c r="G71" s="2">
         <v>0.89474780241649521</v>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43067</v>
+        <v>43068</v>
       </c>
       <c r="G72" s="2">
         <v>0.21072742306706926</v>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="G73" s="2">
         <v>0.25434217867655362</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="G74" s="2">
         <v>0.35857915458283451</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43070</v>
+        <v>43071</v>
       </c>
       <c r="G75" s="2">
         <v>0.70109746172958098</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="F76" s="1">
         <f t="shared" ref="F76:F109" ca="1" si="1">F75+1</f>
-        <v>43071</v>
+        <v>43072</v>
       </c>
       <c r="G76" s="2">
         <v>0.8471876752499663</v>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="G77" s="2">
         <v>0.9301183879405106</v>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="G78" s="2">
         <v>0.98862454976725322</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43074</v>
+        <v>43075</v>
       </c>
       <c r="G79" s="2">
         <v>0.41342606802780646</v>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="G80" s="2">
         <v>0.6252219871752509</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="G81" s="2">
         <v>0.48873919776540264</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="G82" s="2">
         <v>9.3874144631708956E-2</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43078</v>
+        <v>43079</v>
       </c>
       <c r="G83" s="2">
         <v>0.60362919914726854</v>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="G84" s="2">
         <v>0.80739465754808015</v>
@@ -3484,7 +3484,7 @@
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43080</v>
+        <v>43081</v>
       </c>
       <c r="G85" s="2">
         <v>0.24985761600844336</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="G86" s="2">
         <v>0.73826040385492131</v>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="G87" s="2">
         <v>0.70051873060312764</v>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="G88" s="2">
         <v>6.1603923952633366E-3</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43084</v>
+        <v>43085</v>
       </c>
       <c r="G89" s="2">
         <v>0.31443172550467946</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43085</v>
+        <v>43086</v>
       </c>
       <c r="G90" s="2">
         <v>0.57097125794781001</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43086</v>
+        <v>43087</v>
       </c>
       <c r="G91" s="2">
         <v>0.75931887043491542</v>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43087</v>
+        <v>43088</v>
       </c>
       <c r="G92" s="2">
         <v>0.58467767595947751</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="G93" s="2">
         <v>0.11403947277461057</v>
@@ -3700,7 +3700,7 @@
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="G94" s="2">
         <v>0.55355502971467729</v>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="G95" s="2">
         <v>0.1638635460145611</v>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="G96" s="2">
         <v>0.51606244317239758</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43092</v>
+        <v>43093</v>
       </c>
       <c r="G97" s="2">
         <v>0.48065729203617324</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43093</v>
+        <v>43094</v>
       </c>
       <c r="G98" s="2">
         <v>0.83807925741546863</v>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43094</v>
+        <v>43095</v>
       </c>
       <c r="G99" s="2">
         <v>0.50517143272725362</v>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43095</v>
+        <v>43096</v>
       </c>
       <c r="G100" s="2">
         <v>0.14317582252941508</v>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43096</v>
+        <v>43097</v>
       </c>
       <c r="G101" s="2">
         <v>0.21918409780116344</v>
@@ -3892,7 +3892,7 @@
       </c>
       <c r="F102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="G102" s="2">
         <v>0.31284191627988467</v>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="F103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="G103" s="2">
         <v>0.99730369235531569</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="F104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43099</v>
+        <v>43100</v>
       </c>
       <c r="G104" s="2">
         <v>0.84104753696091616</v>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="F105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43100</v>
+        <v>43101</v>
       </c>
       <c r="G105" s="2">
         <v>0.85213043814510103</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="F106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G106" s="2">
         <v>0.17015790202817627</v>
@@ -4012,7 +4012,7 @@
       </c>
       <c r="F107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43102</v>
+        <v>43103</v>
       </c>
       <c r="G107" s="2">
         <v>0.31368438960705314</v>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="F108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="G108" s="2">
         <v>0.27565930417431461</v>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="F109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="G109" s="2">
         <v>0.93139807358768134</v>

--- a/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
+++ b/ablynxloader/src/main/resources/excels/People1 - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="410">
-  <si>
-    <t>Michiel</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="411">
   <si>
     <t>first_name</t>
   </si>
@@ -1254,7 +1251,13 @@
     <t>Rob</t>
   </si>
   <si>
-    <t>Bob</t>
+    <t>oi</t>
+  </si>
+  <si>
+    <t>uh</t>
+  </si>
+  <si>
+    <t>er</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E9:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1598,15 +1601,15 @@
   <sheetData>
     <row r="9" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="F10">
         <v>21</v>
@@ -1632,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A9:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -1645,46 +1648,46 @@
   <sheetData>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
         <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
       </c>
       <c r="F10" s="1">
         <f ca="1" xml:space="preserve"> TODAY()</f>
-        <v>43006</v>
+        <v>43007</v>
       </c>
       <c r="G10" s="2">
         <v>0.19916165334139824</v>
@@ -1692,23 +1695,23 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
       </c>
       <c r="F11" s="1">
         <f ca="1">F10+1</f>
-        <v>43007</v>
+        <v>43008</v>
       </c>
       <c r="G11" s="2">
         <v>0.4163163720275469</v>
@@ -1716,23 +1719,23 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
         <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" ref="F12:F75" ca="1" si="0">F11+1</f>
-        <v>43008</v>
+        <v>43009</v>
       </c>
       <c r="G12" s="2">
         <v>0.7163664606179394</v>
@@ -1740,23 +1743,23 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
       <c r="F13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43009</v>
+        <v>43010</v>
       </c>
       <c r="G13" s="2">
         <v>0.48846370962378238</v>
@@ -1764,23 +1767,23 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
       <c r="F14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43010</v>
+        <v>43011</v>
       </c>
       <c r="G14" s="2">
         <v>0.18293459937479883</v>
@@ -1788,23 +1791,23 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43011</v>
+        <v>43012</v>
       </c>
       <c r="G15" s="2">
         <v>0.55524867307877357</v>
@@ -1812,23 +1815,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43012</v>
+        <v>43013</v>
       </c>
       <c r="G16" s="2">
         <v>0.5119929521822979</v>
@@ -1836,23 +1839,23 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43013</v>
+        <v>43014</v>
       </c>
       <c r="G17" s="2">
         <v>0.61551073911253107</v>
@@ -1860,23 +1863,23 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43014</v>
+        <v>43015</v>
       </c>
       <c r="G18" s="2">
         <v>0.69497675934094494</v>
@@ -1884,23 +1887,23 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43015</v>
+        <v>43016</v>
       </c>
       <c r="G19" s="2">
         <v>0.45834359873746633</v>
@@ -1908,23 +1911,23 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
         <v>46</v>
       </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
       <c r="F20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43016</v>
+        <v>43017</v>
       </c>
       <c r="G20" s="2">
         <v>0.67759913711598718</v>
@@ -1932,23 +1935,23 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
       <c r="F21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43017</v>
+        <v>43018</v>
       </c>
       <c r="G21" s="2">
         <v>0.52463956090917407</v>
@@ -1956,23 +1959,23 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
         <v>54</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
       <c r="F22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43018</v>
+        <v>43019</v>
       </c>
       <c r="G22" s="2">
         <v>0.31030597290787143</v>
@@ -1980,23 +1983,23 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>59</v>
-      </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43019</v>
+        <v>43020</v>
       </c>
       <c r="G23" s="2">
         <v>0.42017830121998434</v>
@@ -2004,23 +2007,23 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
         <v>62</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43020</v>
+        <v>43021</v>
       </c>
       <c r="G24" s="2">
         <v>0.46077178918196593</v>
@@ -2028,23 +2031,23 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
         <v>66</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43021</v>
+        <v>43022</v>
       </c>
       <c r="G25" s="2">
         <v>0.32789172291650048</v>
@@ -2052,23 +2055,23 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
         <v>70</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
       <c r="F26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43022</v>
+        <v>43023</v>
       </c>
       <c r="G26" s="2">
         <v>7.2552559483518575E-4</v>
@@ -2076,23 +2079,23 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>75</v>
-      </c>
       <c r="F27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43023</v>
+        <v>43024</v>
       </c>
       <c r="G27" s="2">
         <v>0.76249716396365153</v>
@@ -2100,23 +2103,23 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>79</v>
-      </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="G28" s="2">
         <v>0.3750071983009351</v>
@@ -2124,23 +2127,23 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>81</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" t="s">
-        <v>83</v>
-      </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43025</v>
+        <v>43026</v>
       </c>
       <c r="G29" s="2">
         <v>0.37846461641921336</v>
@@ -2148,23 +2151,23 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
         <v>84</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43026</v>
+        <v>43027</v>
       </c>
       <c r="G30" s="2">
         <v>0.96567931062216428</v>
@@ -2172,23 +2175,23 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
         <v>90</v>
       </c>
-      <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>91</v>
-      </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43027</v>
+        <v>43028</v>
       </c>
       <c r="G31" s="2">
         <v>0.43091744996703851</v>
@@ -2196,23 +2199,23 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
         <v>94</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43028</v>
+        <v>43029</v>
       </c>
       <c r="G32" s="2">
         <v>0.64920230325149308</v>
@@ -2220,23 +2223,23 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" t="s">
         <v>98</v>
       </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43029</v>
+        <v>43030</v>
       </c>
       <c r="G33" s="2">
         <v>0.85593790489185373</v>
@@ -2244,23 +2247,23 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>101</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43030</v>
+        <v>43031</v>
       </c>
       <c r="G34" s="2">
         <v>0.22852768403452484</v>
@@ -2268,23 +2271,23 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
         <v>104</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="D35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>107</v>
-      </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43031</v>
+        <v>43032</v>
       </c>
       <c r="G35" s="2">
         <v>0.16238606120812904</v>
@@ -2292,23 +2295,23 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>111</v>
-      </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43032</v>
+        <v>43033</v>
       </c>
       <c r="G36" s="2">
         <v>0.53526087740902284</v>
@@ -2316,23 +2319,23 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>113</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
         <v>114</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43033</v>
+        <v>43034</v>
       </c>
       <c r="G37" s="2">
         <v>0.82194442761920605</v>
@@ -2340,23 +2343,23 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
         <v>116</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>117</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43034</v>
+        <v>43035</v>
       </c>
       <c r="G38" s="2">
         <v>0.88212965769788032</v>
@@ -2364,23 +2367,23 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>121</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" t="s">
         <v>122</v>
       </c>
-      <c r="D39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43035</v>
+        <v>43036</v>
       </c>
       <c r="G39" s="2">
         <v>7.2250303799197169E-2</v>
@@ -2388,23 +2391,23 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
         <v>124</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>125</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" t="s">
         <v>126</v>
       </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>127</v>
-      </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43036</v>
+        <v>43037</v>
       </c>
       <c r="G40" s="2">
         <v>7.1195702056510823E-2</v>
@@ -2412,23 +2415,23 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
         <v>128</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s">
         <v>130</v>
       </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>131</v>
-      </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43037</v>
+        <v>43038</v>
       </c>
       <c r="G41" s="2">
         <v>0.85785120950915561</v>
@@ -2436,23 +2439,23 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>133</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
         <v>134</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43038</v>
+        <v>43039</v>
       </c>
       <c r="G42" s="2">
         <v>0.30577153058324347</v>
@@ -2460,23 +2463,23 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
         <v>136</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>137</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
         <v>138</v>
       </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>139</v>
-      </c>
       <c r="F43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43039</v>
+        <v>43040</v>
       </c>
       <c r="G43" s="2">
         <v>0.31483526491145875</v>
@@ -2484,23 +2487,23 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
         <v>140</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>141</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" t="s">
         <v>142</v>
       </c>
-      <c r="D44" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" t="s">
-        <v>143</v>
-      </c>
       <c r="F44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43040</v>
+        <v>43041</v>
       </c>
       <c r="G44" s="2">
         <v>0.94599185402877539</v>
@@ -2508,23 +2511,23 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
         <v>144</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>145</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s">
         <v>146</v>
       </c>
-      <c r="D45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" t="s">
-        <v>147</v>
-      </c>
       <c r="F45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43041</v>
+        <v>43042</v>
       </c>
       <c r="G45" s="2">
         <v>0.34205280977493635</v>
@@ -2532,23 +2535,23 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
         <v>149</v>
       </c>
-      <c r="D46" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
-      </c>
       <c r="F46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43042</v>
+        <v>43043</v>
       </c>
       <c r="G46" s="2">
         <v>0.17705269996376227</v>
@@ -2556,23 +2559,23 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>150</v>
+      </c>
+      <c r="B47" t="s">
         <v>151</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>152</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" t="s">
         <v>153</v>
       </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>154</v>
-      </c>
       <c r="F47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43043</v>
+        <v>43044</v>
       </c>
       <c r="G47" s="2">
         <v>0.8731505416410984</v>
@@ -2580,23 +2583,23 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
         <v>155</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>156</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
         <v>157</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>158</v>
-      </c>
       <c r="F48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43044</v>
+        <v>43045</v>
       </c>
       <c r="G48" s="2">
         <v>3.4709672365056843E-2</v>
@@ -2604,23 +2607,23 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
         <v>159</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>160</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
         <v>161</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>162</v>
-      </c>
       <c r="F49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43045</v>
+        <v>43046</v>
       </c>
       <c r="G49" s="2">
         <v>0.56840793858086924</v>
@@ -2628,23 +2631,23 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" t="s">
         <v>163</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>164</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
         <v>165</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>166</v>
-      </c>
       <c r="F50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43046</v>
+        <v>43047</v>
       </c>
       <c r="G50" s="2">
         <v>0.66056676193295061</v>
@@ -2652,23 +2655,23 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" t="s">
         <v>167</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>168</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
         <v>169</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>170</v>
-      </c>
       <c r="F51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43047</v>
+        <v>43048</v>
       </c>
       <c r="G51" s="2">
         <v>0.9481936014422625</v>
@@ -2676,23 +2679,23 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>170</v>
+      </c>
+      <c r="B52" t="s">
         <v>171</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>172</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
         <v>173</v>
       </c>
-      <c r="D52" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" t="s">
-        <v>174</v>
-      </c>
       <c r="F52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43048</v>
+        <v>43049</v>
       </c>
       <c r="G52" s="2">
         <v>0.48134481626866865</v>
@@ -2700,23 +2703,23 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>174</v>
+      </c>
+      <c r="B53" t="s">
         <v>175</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" t="s">
         <v>177</v>
       </c>
-      <c r="D53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" t="s">
-        <v>178</v>
-      </c>
       <c r="F53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43049</v>
+        <v>43050</v>
       </c>
       <c r="G53" s="2">
         <v>0.98436272154419169</v>
@@ -2724,23 +2727,23 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" t="s">
         <v>179</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>180</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" t="s">
         <v>181</v>
       </c>
-      <c r="D54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s">
-        <v>182</v>
-      </c>
       <c r="F54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43050</v>
+        <v>43051</v>
       </c>
       <c r="G54" s="2">
         <v>0.24448855346001963</v>
@@ -2748,23 +2751,23 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" t="s">
         <v>183</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>184</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
         <v>185</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>186</v>
-      </c>
       <c r="F55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43051</v>
+        <v>43052</v>
       </c>
       <c r="G55" s="2">
         <v>0.38813971210061615</v>
@@ -2772,23 +2775,23 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B56" t="s">
         <v>187</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>188</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
         <v>189</v>
       </c>
-      <c r="D56" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
       <c r="F56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43052</v>
+        <v>43053</v>
       </c>
       <c r="G56" s="2">
         <v>0.18553229965365681</v>
@@ -2796,23 +2799,23 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" t="s">
         <v>191</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>192</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" t="s">
         <v>193</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
       <c r="F57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43053</v>
+        <v>43054</v>
       </c>
       <c r="G57" s="2">
         <v>0.46398219265503382</v>
@@ -2820,23 +2823,23 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" t="s">
         <v>195</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>196</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" t="s">
         <v>197</v>
       </c>
-      <c r="D58" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" t="s">
-        <v>198</v>
-      </c>
       <c r="F58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43054</v>
+        <v>43055</v>
       </c>
       <c r="G58" s="2">
         <v>0.95347248750662683</v>
@@ -2844,23 +2847,23 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" t="s">
         <v>199</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>200</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" t="s">
         <v>201</v>
       </c>
-      <c r="D59" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" t="s">
-        <v>202</v>
-      </c>
       <c r="F59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="G59" s="2">
         <v>0.95523140993288003</v>
@@ -2868,23 +2871,23 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s">
         <v>203</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>204</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
         <v>205</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" t="s">
-        <v>206</v>
-      </c>
       <c r="F60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43056</v>
+        <v>43057</v>
       </c>
       <c r="G60" s="2">
         <v>0.60285593026323092</v>
@@ -2892,23 +2895,23 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" t="s">
         <v>207</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>208</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s">
         <v>209</v>
       </c>
-      <c r="D61" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" t="s">
-        <v>210</v>
-      </c>
       <c r="F61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43057</v>
+        <v>43058</v>
       </c>
       <c r="G61" s="2">
         <v>0.80654472217638473</v>
@@ -2916,23 +2919,23 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
         <v>211</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>212</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
         <v>213</v>
       </c>
-      <c r="D62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" t="s">
-        <v>214</v>
-      </c>
       <c r="F62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43058</v>
+        <v>43059</v>
       </c>
       <c r="G62" s="2">
         <v>0.23547687087211988</v>
@@ -2940,23 +2943,23 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" t="s">
         <v>215</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>216</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
         <v>217</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
-      <c r="E63" t="s">
-        <v>218</v>
-      </c>
       <c r="F63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43059</v>
+        <v>43060</v>
       </c>
       <c r="G63" s="2">
         <v>0.30970611241142176</v>
@@ -2964,23 +2967,23 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
         <v>219</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>220</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
         <v>221</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" t="s">
-        <v>222</v>
-      </c>
       <c r="F64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43060</v>
+        <v>43061</v>
       </c>
       <c r="G64" s="2">
         <v>0.28513850123847373</v>
@@ -2988,23 +2991,23 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
         <v>223</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>224</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" t="s">
         <v>225</v>
       </c>
-      <c r="D65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" t="s">
-        <v>226</v>
-      </c>
       <c r="F65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43061</v>
+        <v>43062</v>
       </c>
       <c r="G65" s="2">
         <v>8.4540537865267495E-2</v>
@@ -3012,23 +3015,23 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" t="s">
         <v>227</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>228</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" t="s">
         <v>229</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" t="s">
-        <v>230</v>
-      </c>
       <c r="F66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43062</v>
+        <v>43063</v>
       </c>
       <c r="G66" s="2">
         <v>0.7185829330697816</v>
@@ -3036,23 +3039,23 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
         <v>231</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>232</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
         <v>233</v>
       </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" t="s">
-        <v>234</v>
-      </c>
       <c r="F67" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43063</v>
+        <v>43064</v>
       </c>
       <c r="G67" s="2">
         <v>0.34062480906485459</v>
@@ -3060,23 +3063,23 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B68" t="s">
         <v>235</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>236</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
         <v>237</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" t="s">
-        <v>238</v>
-      </c>
       <c r="F68" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43064</v>
+        <v>43065</v>
       </c>
       <c r="G68" s="2">
         <v>0.17354261155111872</v>
@@ -3084,23 +3087,23 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>238</v>
+      </c>
+      <c r="B69" t="s">
         <v>239</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>240</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
         <v>241</v>
       </c>
-      <c r="D69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" t="s">
-        <v>242</v>
-      </c>
       <c r="F69" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43065</v>
+        <v>43066</v>
       </c>
       <c r="G69" s="2">
         <v>0.46191420869872024</v>
@@ -3108,23 +3111,23 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>242</v>
+      </c>
+      <c r="B70" t="s">
         <v>243</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>244</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
         <v>245</v>
       </c>
-      <c r="D70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" t="s">
-        <v>246</v>
-      </c>
       <c r="F70" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43066</v>
+        <v>43067</v>
       </c>
       <c r="G70" s="2">
         <v>0.98240017574459171</v>
@@ -3132,23 +3135,23 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" t="s">
         <v>247</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>248</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
         <v>249</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" t="s">
-        <v>250</v>
-      </c>
       <c r="F71" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43067</v>
+        <v>43068</v>
       </c>
       <c r="G71" s="2">
         <v>0.89474780241649521</v>
@@ -3156,23 +3159,23 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>250</v>
+      </c>
+      <c r="B72" t="s">
         <v>251</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>252</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" t="s">
         <v>253</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" t="s">
-        <v>254</v>
-      </c>
       <c r="F72" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43068</v>
+        <v>43069</v>
       </c>
       <c r="G72" s="2">
         <v>0.21072742306706926</v>
@@ -3180,23 +3183,23 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>254</v>
+      </c>
+      <c r="B73" t="s">
         <v>255</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>256</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
         <v>257</v>
       </c>
-      <c r="D73" t="s">
-        <v>26</v>
-      </c>
-      <c r="E73" t="s">
-        <v>258</v>
-      </c>
       <c r="F73" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43069</v>
+        <v>43070</v>
       </c>
       <c r="G73" s="2">
         <v>0.25434217867655362</v>
@@ -3204,23 +3207,23 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>258</v>
+      </c>
+      <c r="B74" t="s">
         <v>259</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>260</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" t="s">
         <v>261</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" t="s">
-        <v>262</v>
-      </c>
       <c r="F74" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43070</v>
+        <v>43071</v>
       </c>
       <c r="G74" s="2">
         <v>0.35857915458283451</v>
@@ -3228,23 +3231,23 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" t="s">
         <v>263</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>264</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75" t="s">
         <v>265</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" t="s">
-        <v>266</v>
-      </c>
       <c r="F75" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>43071</v>
+        <v>43072</v>
       </c>
       <c r="G75" s="2">
         <v>0.70109746172958098</v>
@@ -3252,23 +3255,23 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>266</v>
+      </c>
+      <c r="B76" t="s">
         <v>267</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>268</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
         <v>269</v>
-      </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" t="s">
-        <v>270</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ref="F76:F109" ca="1" si="1">F75+1</f>
-        <v>43072</v>
+        <v>43073</v>
       </c>
       <c r="G76" s="2">
         <v>0.8471876752499663</v>
@@ -3276,23 +3279,23 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" t="s">
         <v>271</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>272</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" t="s">
         <v>273</v>
-      </c>
-      <c r="D77" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" t="s">
-        <v>274</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43073</v>
+        <v>43074</v>
       </c>
       <c r="G77" s="2">
         <v>0.9301183879405106</v>
@@ -3300,23 +3303,23 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>274</v>
+      </c>
+      <c r="B78" t="s">
         <v>275</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>276</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
         <v>277</v>
-      </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
-      <c r="E78" t="s">
-        <v>278</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43074</v>
+        <v>43075</v>
       </c>
       <c r="G78" s="2">
         <v>0.98862454976725322</v>
@@ -3324,23 +3327,23 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" t="s">
         <v>279</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>280</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" t="s">
         <v>281</v>
-      </c>
-      <c r="D79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E79" t="s">
-        <v>282</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43075</v>
+        <v>43076</v>
       </c>
       <c r="G79" s="2">
         <v>0.41342606802780646</v>
@@ -3348,23 +3351,23 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>282</v>
+      </c>
+      <c r="B80" t="s">
         <v>283</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>284</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" t="s">
         <v>285</v>
-      </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" t="s">
-        <v>286</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43076</v>
+        <v>43077</v>
       </c>
       <c r="G80" s="2">
         <v>0.6252219871752509</v>
@@ -3372,23 +3375,23 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>286</v>
+      </c>
+      <c r="B81" t="s">
         <v>287</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>288</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
         <v>289</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>290</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43077</v>
+        <v>43078</v>
       </c>
       <c r="G81" s="2">
         <v>0.48873919776540264</v>
@@ -3396,23 +3399,23 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
+        <v>290</v>
+      </c>
+      <c r="B82" t="s">
         <v>291</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>292</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" t="s">
         <v>293</v>
-      </c>
-      <c r="D82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" t="s">
-        <v>294</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43078</v>
+        <v>43079</v>
       </c>
       <c r="G82" s="2">
         <v>9.3874144631708956E-2</v>
@@ -3420,23 +3423,23 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" t="s">
         <v>295</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>296</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E83" t="s">
         <v>297</v>
-      </c>
-      <c r="D83" t="s">
-        <v>26</v>
-      </c>
-      <c r="E83" t="s">
-        <v>298</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43079</v>
+        <v>43080</v>
       </c>
       <c r="G83" s="2">
         <v>0.60362919914726854</v>
@@ -3444,23 +3447,23 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
         <v>299</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>300</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" t="s">
         <v>301</v>
-      </c>
-      <c r="D84" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" t="s">
-        <v>302</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43080</v>
+        <v>43081</v>
       </c>
       <c r="G84" s="2">
         <v>0.80739465754808015</v>
@@ -3468,23 +3471,23 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>302</v>
+      </c>
+      <c r="B85" t="s">
         <v>303</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>304</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
         <v>305</v>
-      </c>
-      <c r="D85" t="s">
-        <v>26</v>
-      </c>
-      <c r="E85" t="s">
-        <v>306</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43081</v>
+        <v>43082</v>
       </c>
       <c r="G85" s="2">
         <v>0.24985761600844336</v>
@@ -3492,23 +3495,23 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>306</v>
+      </c>
+      <c r="B86" t="s">
         <v>307</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>308</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" t="s">
         <v>309</v>
-      </c>
-      <c r="D86" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" t="s">
-        <v>310</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43082</v>
+        <v>43083</v>
       </c>
       <c r="G86" s="2">
         <v>0.73826040385492131</v>
@@ -3516,23 +3519,23 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>310</v>
+      </c>
+      <c r="B87" t="s">
         <v>311</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>312</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
         <v>313</v>
-      </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" t="s">
-        <v>314</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43083</v>
+        <v>43084</v>
       </c>
       <c r="G87" s="2">
         <v>0.70051873060312764</v>
@@ -3540,23 +3543,23 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" t="s">
         <v>315</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>316</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
         <v>317</v>
-      </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>318</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43084</v>
+        <v>43085</v>
       </c>
       <c r="G88" s="2">
         <v>6.1603923952633366E-3</v>
@@ -3564,23 +3567,23 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" t="s">
         <v>319</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>320</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
         <v>321</v>
-      </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" t="s">
-        <v>322</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43085</v>
+        <v>43086</v>
       </c>
       <c r="G89" s="2">
         <v>0.31443172550467946</v>
@@ -3588,23 +3591,23 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" t="s">
         <v>323</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>324</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" t="s">
         <v>325</v>
-      </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" t="s">
-        <v>326</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43086</v>
+        <v>43087</v>
       </c>
       <c r="G90" s="2">
         <v>0.57097125794781001</v>
@@ -3612,23 +3615,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>326</v>
+      </c>
+      <c r="B91" t="s">
         <v>327</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>328</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" t="s">
         <v>329</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" t="s">
-        <v>330</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43087</v>
+        <v>43088</v>
       </c>
       <c r="G91" s="2">
         <v>0.75931887043491542</v>
@@ -3636,23 +3639,23 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" t="s">
         <v>331</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>332</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
         <v>333</v>
-      </c>
-      <c r="D92" t="s">
-        <v>26</v>
-      </c>
-      <c r="E92" t="s">
-        <v>334</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43088</v>
+        <v>43089</v>
       </c>
       <c r="G92" s="2">
         <v>0.58467767595947751</v>
@@ -3660,23 +3663,23 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" t="s">
         <v>335</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>336</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93" t="s">
         <v>337</v>
-      </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>338</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43089</v>
+        <v>43090</v>
       </c>
       <c r="G93" s="2">
         <v>0.11403947277461057</v>
@@ -3684,23 +3687,23 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>338</v>
+      </c>
+      <c r="B94" t="s">
         <v>339</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>340</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" t="s">
         <v>341</v>
-      </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
-      <c r="E94" t="s">
-        <v>342</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43090</v>
+        <v>43091</v>
       </c>
       <c r="G94" s="2">
         <v>0.55355502971467729</v>
@@ -3708,23 +3711,23 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" t="s">
         <v>343</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>344</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" t="s">
         <v>345</v>
-      </c>
-      <c r="D95" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" t="s">
-        <v>346</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43091</v>
+        <v>43092</v>
       </c>
       <c r="G95" s="2">
         <v>0.1638635460145611</v>
@@ -3732,23 +3735,23 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>346</v>
+      </c>
+      <c r="B96" t="s">
         <v>347</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>348</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>6</v>
+      </c>
+      <c r="E96" t="s">
         <v>349</v>
-      </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" t="s">
-        <v>350</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43092</v>
+        <v>43093</v>
       </c>
       <c r="G96" s="2">
         <v>0.51606244317239758</v>
@@ -3756,23 +3759,23 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>350</v>
+      </c>
+      <c r="B97" t="s">
         <v>351</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>352</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" t="s">
         <v>353</v>
-      </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" t="s">
-        <v>354</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43093</v>
+        <v>43094</v>
       </c>
       <c r="G97" s="2">
         <v>0.48065729203617324</v>
@@ -3780,23 +3783,23 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>354</v>
+      </c>
+      <c r="B98" t="s">
         <v>355</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>356</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
         <v>357</v>
-      </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" t="s">
-        <v>358</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43094</v>
+        <v>43095</v>
       </c>
       <c r="G98" s="2">
         <v>0.83807925741546863</v>
@@ -3804,23 +3807,23 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
+        <v>358</v>
+      </c>
+      <c r="B99" t="s">
         <v>359</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>360</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" t="s">
         <v>361</v>
-      </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" t="s">
-        <v>362</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43095</v>
+        <v>43096</v>
       </c>
       <c r="G99" s="2">
         <v>0.50517143272725362</v>
@@ -3828,23 +3831,23 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
+        <v>362</v>
+      </c>
+      <c r="B100" t="s">
         <v>363</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>364</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" t="s">
         <v>365</v>
-      </c>
-      <c r="D100" t="s">
-        <v>26</v>
-      </c>
-      <c r="E100" t="s">
-        <v>366</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43096</v>
+        <v>43097</v>
       </c>
       <c r="G100" s="2">
         <v>0.14317582252941508</v>
@@ -3852,23 +3855,23 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" t="s">
         <v>367</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>368</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" t="s">
         <v>369</v>
-      </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" t="s">
-        <v>370</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43097</v>
+        <v>43098</v>
       </c>
       <c r="G101" s="2">
         <v>0.21918409780116344</v>
@@ -3876,23 +3879,23 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" t="s">
         <v>371</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>372</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" t="s">
         <v>373</v>
-      </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" t="s">
-        <v>374</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43098</v>
+        <v>43099</v>
       </c>
       <c r="G102" s="2">
         <v>0.31284191627988467</v>
@@ -3900,23 +3903,23 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>374</v>
+      </c>
+      <c r="B103" t="s">
         <v>375</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>376</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" t="s">
         <v>377</v>
-      </c>
-      <c r="D103" t="s">
-        <v>26</v>
-      </c>
-      <c r="E103" t="s">
-        <v>378</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43099</v>
+        <v>43100</v>
       </c>
       <c r="G103" s="2">
         <v>0.99730369235531569</v>
@@ -3924,23 +3927,23 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>378</v>
+      </c>
+      <c r="B104" t="s">
         <v>379</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>380</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
         <v>381</v>
-      </c>
-      <c r="D104" t="s">
-        <v>26</v>
-      </c>
-      <c r="E104" t="s">
-        <v>382</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43100</v>
+        <v>43101</v>
       </c>
       <c r="G104" s="2">
         <v>0.84104753696091616</v>
@@ -3948,23 +3951,23 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>382</v>
+      </c>
+      <c r="B105" t="s">
         <v>383</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>384</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" t="s">
         <v>385</v>
-      </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" t="s">
-        <v>386</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G105" s="2">
         <v>0.85213043814510103</v>
@@ -3972,23 +3975,23 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
+        <v>386</v>
+      </c>
+      <c r="B106" t="s">
         <v>387</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>388</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
         <v>389</v>
-      </c>
-      <c r="D106" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" t="s">
-        <v>390</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43102</v>
+        <v>43103</v>
       </c>
       <c r="G106" s="2">
         <v>0.17015790202817627</v>
@@ -3996,23 +3999,23 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" t="s">
         <v>391</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>392</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" t="s">
         <v>393</v>
-      </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
-      <c r="E107" t="s">
-        <v>394</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43103</v>
+        <v>43104</v>
       </c>
       <c r="G107" s="2">
         <v>0.31368438960705314</v>
@@ -4020,23 +4023,23 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>394</v>
+      </c>
+      <c r="B108" t="s">
         <v>395</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>396</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" t="s">
         <v>397</v>
-      </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>398</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43104</v>
+        <v>43105</v>
       </c>
       <c r="G108" s="2">
         <v>0.27565930417431461</v>
@@ -4044,23 +4047,23 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
+        <v>398</v>
+      </c>
+      <c r="B109" t="s">
         <v>399</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>400</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
         <v>401</v>
-      </c>
-      <c r="D109" t="s">
-        <v>26</v>
-      </c>
-      <c r="E109" t="s">
-        <v>402</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>43105</v>
+        <v>43106</v>
       </c>
       <c r="G109" s="2">
         <v>0.93139807358768134</v>
